--- a/1_Result_Tables/4_ifoCAST_evaluations_GVA_last_rep_since_2022/ifoCAst_error_tables_last_rep_first_since_2022_GVA.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_GVA_last_rep_since_2022/ifoCAst_error_tables_last_rep_first_since_2022_GVA.xlsx
@@ -423,22 +423,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1859961659266656</v>
+        <v>0.1916468203859388</v>
       </c>
       <c r="C2">
-        <v>0.7720642043441891</v>
+        <v>0.7358528560593535</v>
       </c>
       <c r="D2">
-        <v>0.953302528209404</v>
+        <v>0.8902295501318038</v>
       </c>
       <c r="E2">
-        <v>0.9763721258871558</v>
+        <v>0.9435197666884376</v>
       </c>
       <c r="F2">
-        <v>0.9976306684719632</v>
+        <v>0.9587257026967815</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
